--- a/biology/Origine et évolution du vivant/Havre_Hamelin/Havre_Hamelin.xlsx
+++ b/biology/Origine et évolution du vivant/Havre_Hamelin/Havre_Hamelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Appelé Hamelin pool en anglais, le havre Hamelin est une baie australienne située à l'intérieur du golfe de l'océan Indien que l'on appelle baie Shark, sur la côte ouest de l'Australie-Occidentale.
@@ -514,9 +526,11 @@
           <t>Richesse en biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce site est mondialement connu pour le fait qu'il abrite encore des stromatolithes, concrétions minérales feuilletées dues à des colonies bactériennes. Ces concrétions sont très semblables à celles qui existaient il y a plus de 3,5 milliards d'années et qui sont les fossiles des plus anciennes formes de vie organisée connue[1]. Elles se développent dans les eaux peu profondes et chaudes du fond du golfe, dans la zone intertidale, sur l'estran, et sont donc à découvert à marée basse. Diverses espèces de bactéries produisent diverses sortes de stromatolithes, et leur biodiversité au havre Hamelin est très grande.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce site est mondialement connu pour le fait qu'il abrite encore des stromatolithes, concrétions minérales feuilletées dues à des colonies bactériennes. Ces concrétions sont très semblables à celles qui existaient il y a plus de 3,5 milliards d'années et qui sont les fossiles des plus anciennes formes de vie organisée connue. Elles se développent dans les eaux peu profondes et chaudes du fond du golfe, dans la zone intertidale, sur l'estran, et sont donc à découvert à marée basse. Diverses espèces de bactéries produisent diverses sortes de stromatolithes, et leur biodiversité au havre Hamelin est très grande.
 </t>
         </is>
       </c>
